--- a/simple_flask_app/templates/data_commercial.xlsx
+++ b/simple_flask_app/templates/data_commercial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelmah/Documents/codes/simple_flask_app/simple_flask_app/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB2B615-8096-E944-A516-B0B7895F7B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E60BDE-7C26-3A41-9AFF-7969AEA82956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="26660" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="19460" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basis" sheetId="2" r:id="rId1"/>
@@ -6022,7 +6022,7 @@
   <dimension ref="A1:H993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6217,7 +6217,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="17">
-        <v>5.9174784003063446E-2</v>
+        <v>1.183495680061269E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -6228,7 +6228,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="17">
-        <v>0.11834956800612689</v>
+        <v>2.3669913601225379E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -6239,7 +6239,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="17">
-        <v>0.16352543697995198</v>
+        <v>3.2705087395990394E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -6250,7 +6250,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="17">
-        <v>0.20870130595377703</v>
+        <v>4.1740261190755405E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -6261,7 +6261,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="17">
-        <v>0.2602593558783875</v>
+        <v>5.20518711756775E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -6272,7 +6272,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="17">
-        <v>0.31181740580299794</v>
+        <v>6.2363481160599588E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -6283,7 +6283,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="17">
-        <v>0.34514435695538054</v>
+        <v>6.9028871391076108E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -6294,7 +6294,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="17">
-        <v>0.37847130810776314</v>
+        <v>7.5694261621552628E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -6305,7 +6305,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="17">
-        <v>0.39773751685294656</v>
+        <v>7.9547503370589315E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -6316,7 +6316,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="17">
-        <v>0.41700372559812998</v>
+        <v>8.3400745119626002E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -6327,7 +6327,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="17">
-        <v>0.41687209311602003</v>
+        <v>8.3374418623204008E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -6338,7 +6338,7 @@
         <v>25</v>
       </c>
       <c r="C33" s="17">
-        <v>0.41674046063391013</v>
+        <v>8.3348092126782028E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -6349,7 +6349,7 @@
         <v>26</v>
       </c>
       <c r="C34" s="17">
-        <v>0.42541424343233686</v>
+        <v>8.5082848686467372E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -6360,7 +6360,7 @@
         <v>27</v>
       </c>
       <c r="C35" s="17">
-        <v>0.43408802623076365</v>
+        <v>8.6817605246152729E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -6371,7 +6371,7 @@
         <v>28</v>
       </c>
       <c r="C36" s="17">
-        <v>0.4366349153164365</v>
+        <v>8.7326983063287303E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -6382,7 +6382,7 @@
         <v>29</v>
       </c>
       <c r="C37" s="17">
-        <v>0.4391818044021093</v>
+        <v>8.7836360880421863E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -6393,7 +6393,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="17">
-        <v>0.43315862112980558</v>
+        <v>8.6631724225961118E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -6404,7 +6404,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="17">
-        <v>0.4271354378575018</v>
+        <v>8.542708757150036E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -6415,7 +6415,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="17">
-        <v>0.41230683930466133</v>
+        <v>8.2461367860932264E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -6426,7 +6426,7 @@
         <v>33</v>
       </c>
       <c r="C41" s="17">
-        <v>0.39747824075182092</v>
+        <v>7.9495648150364182E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -6437,7 +6437,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="17">
-        <v>0.35548747895874716</v>
+        <v>7.1097495791749427E-2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -6448,7 +6448,7 @@
         <v>35</v>
       </c>
       <c r="C43" s="17">
-        <v>0.3134967171656734</v>
+        <v>6.2699343433134685E-2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -6459,7 +6459,7 @@
         <v>36</v>
       </c>
       <c r="C44" s="17">
-        <v>0.21441136347318285</v>
+        <v>4.288227269463657E-2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -6470,7 +6470,7 @@
         <v>37</v>
       </c>
       <c r="C45" s="17">
-        <v>0.11532600978069231</v>
+        <v>2.3065201956138461E-2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -6481,7 +6481,7 @@
         <v>38</v>
       </c>
       <c r="C46" s="17">
-        <v>0.10325770448906652</v>
+        <v>2.0651540897813302E-2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -6492,7 +6492,7 @@
         <v>39</v>
       </c>
       <c r="C47" s="17">
-        <v>9.1189399197440721E-2</v>
+        <v>1.8237879839488144E-2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -6503,7 +6503,7 @@
         <v>40</v>
       </c>
       <c r="C48" s="17">
-        <v>8.3105968136961597E-2</v>
+        <v>1.6621193627392318E-2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -6514,7 +6514,7 @@
         <v>41</v>
       </c>
       <c r="C49" s="17">
-        <v>7.502253707648246E-2</v>
+        <v>1.5004507415296492E-2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -6525,7 +6525,7 @@
         <v>42</v>
       </c>
       <c r="C50" s="17">
-        <v>3.751126853824123E-2</v>
+        <v>7.502253707648246E-3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -6759,7 +6759,7 @@
         <v>14</v>
       </c>
       <c r="C70" s="17">
-        <v>6.2929491190424111E-2</v>
+        <v>1.2585898238084823E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -6771,7 +6771,7 @@
         <v>15</v>
       </c>
       <c r="C71" s="17">
-        <v>0.12991798387250109</v>
+        <v>2.5983596774500219E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -6783,7 +6783,7 @@
         <v>16</v>
       </c>
       <c r="C72" s="17">
-        <v>0.15324490246844089</v>
+        <v>3.0648980493688176E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -6795,7 +6795,7 @@
         <v>17</v>
       </c>
       <c r="C73" s="17">
-        <v>0.20244089077635682</v>
+        <v>4.0488178155271365E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -6807,7 +6807,7 @@
         <v>18</v>
       </c>
       <c r="C74" s="17">
-        <v>0.2502737954210616</v>
+        <v>5.0054759084212322E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -6819,7 +6819,7 @@
         <v>19</v>
       </c>
       <c r="C75" s="17">
-        <v>0.28313152739413772</v>
+        <v>5.6626305478827542E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -6831,7 +6831,7 @@
         <v>20</v>
       </c>
       <c r="C76" s="17">
-        <v>0.32385463851327012</v>
+        <v>6.4770927702654024E-2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -6843,7 +6843,7 @@
         <v>21</v>
       </c>
       <c r="C77" s="17">
-        <v>0.39630003941282516</v>
+        <v>7.9260007882565028E-2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -6855,7 +6855,7 @@
         <v>22</v>
       </c>
       <c r="C78" s="17">
-        <v>0.41552676217344287</v>
+        <v>8.310535243468857E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -6867,7 +6867,7 @@
         <v>23</v>
       </c>
       <c r="C79" s="17">
-        <v>0.41459023428156455</v>
+        <v>8.2918046856312905E-2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -6879,7 +6879,7 @@
         <v>24</v>
       </c>
       <c r="C80" s="17">
-        <v>0.44227122131438928</v>
+        <v>8.845424426287786E-2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -6891,7 +6891,7 @@
         <v>25</v>
       </c>
       <c r="C81" s="17">
-        <v>0.44867156113577328</v>
+        <v>8.9734312227154653E-2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -6903,7 +6903,7 @@
         <v>26</v>
       </c>
       <c r="C82" s="17">
-        <v>0.45053690492687198</v>
+        <v>9.0107380985374394E-2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -6915,7 +6915,7 @@
         <v>27</v>
       </c>
       <c r="C83" s="17">
-        <v>0.4496943613536577</v>
+        <v>8.9938872270731537E-2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -6927,7 +6927,7 @@
         <v>28</v>
       </c>
       <c r="C84" s="17">
-        <v>0.45120662812078288</v>
+        <v>9.0241325624156571E-2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -6939,7 +6939,7 @@
         <v>29</v>
       </c>
       <c r="C85" s="17">
-        <v>0.47146756669733025</v>
+        <v>9.4293513339466048E-2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -6951,7 +6951,7 @@
         <v>30</v>
       </c>
       <c r="C86" s="17">
-        <v>0.40420080963345684</v>
+        <v>8.084016192669137E-2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -6963,7 +6963,7 @@
         <v>31</v>
       </c>
       <c r="C87" s="17">
-        <v>0.45811563320042697</v>
+        <v>9.1623126640085401E-2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -6975,7 +6975,7 @@
         <v>32</v>
       </c>
       <c r="C88" s="17">
-        <v>0.38715522977340766</v>
+        <v>7.7431045954681532E-2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -6987,7 +6987,7 @@
         <v>33</v>
       </c>
       <c r="C89" s="17">
-        <v>0.36165830789955572</v>
+        <v>7.2331661579911138E-2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -6999,7 +6999,7 @@
         <v>34</v>
       </c>
       <c r="C90" s="17">
-        <v>0.37316697938335586</v>
+        <v>7.4633395876671171E-2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -7011,7 +7011,7 @@
         <v>35</v>
       </c>
       <c r="C91" s="17">
-        <v>0.28502885158208491</v>
+        <v>5.700577031641698E-2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -7023,7 +7023,7 @@
         <v>36</v>
       </c>
       <c r="C92" s="17">
-        <v>0.21707616434276836</v>
+        <v>4.3415232868553671E-2</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -7035,7 +7035,7 @@
         <v>37</v>
       </c>
       <c r="C93" s="17">
-        <v>0.1239157999343739</v>
+        <v>2.4783159986874782E-2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -7047,7 +7047,7 @@
         <v>38</v>
       </c>
       <c r="C94" s="17">
-        <v>0.10115779715140344</v>
+        <v>2.0231559430280689E-2</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -7059,7 +7059,7 @@
         <v>39</v>
       </c>
       <c r="C95" s="17">
-        <v>9.1510374563489927E-2</v>
+        <v>1.8302074912697985E-2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -7071,7 +7071,7 @@
         <v>40</v>
       </c>
       <c r="C96" s="17">
-        <v>8.131239312965434E-2</v>
+        <v>1.6262478625930867E-2</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -7083,7 +7083,7 @@
         <v>41</v>
       </c>
       <c r="C97" s="17">
-        <v>7.3201838309940523E-2</v>
+        <v>1.4640367661988105E-2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -7095,7 +7095,7 @@
         <v>42</v>
       </c>
       <c r="C98" s="17">
-        <v>3.9889813324270593E-2</v>
+        <v>7.9779626648541178E-3</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -7335,7 +7335,7 @@
         <v>14</v>
       </c>
       <c r="C118" s="17">
-        <v>5.8326700894014177E-2</v>
+        <v>1.1665340178802835E-2</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -7347,7 +7347,7 @@
         <v>15</v>
       </c>
       <c r="C119" s="17">
-        <v>0.13568366190262268</v>
+        <v>2.7136732380524536E-2</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -7359,7 +7359,7 @@
         <v>16</v>
       </c>
       <c r="C120" s="17">
-        <v>0.16108602781875675</v>
+        <v>3.221720556375135E-2</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -7371,7 +7371,7 @@
         <v>17</v>
       </c>
       <c r="C121" s="17">
-        <v>0.20097992875572851</v>
+        <v>4.0195985751145705E-2</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -7383,7 +7383,7 @@
         <v>18</v>
       </c>
       <c r="C122" s="17">
-        <v>0.23580179156555689</v>
+        <v>4.7160358313111377E-2</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -7395,7 +7395,7 @@
         <v>19</v>
       </c>
       <c r="C123" s="17">
-        <v>0.29120086088889291</v>
+        <v>5.8240172177778583E-2</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -7407,7 +7407,7 @@
         <v>20</v>
       </c>
       <c r="C124" s="17">
-        <v>0.33646367200551264</v>
+        <v>6.7292734401102533E-2</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -7419,7 +7419,7 @@
         <v>21</v>
       </c>
       <c r="C125" s="17">
-        <v>0.39234739437188826</v>
+        <v>7.8469478874377649E-2</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -7431,7 +7431,7 @@
         <v>22</v>
       </c>
       <c r="C126" s="17">
-        <v>0.4429115158527257</v>
+        <v>8.8582303170545135E-2</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -7443,7 +7443,7 @@
         <v>23</v>
       </c>
       <c r="C127" s="17">
-        <v>0.43150798162698767</v>
+        <v>8.6301596325397537E-2</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -7455,7 +7455,7 @@
         <v>24</v>
       </c>
       <c r="C128" s="17">
-        <v>0.42800871107088651</v>
+        <v>8.5601742214177295E-2</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -7467,7 +7467,7 @@
         <v>25</v>
       </c>
       <c r="C129" s="17">
-        <v>0.45030509941771968</v>
+        <v>9.0061019883543939E-2</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -7479,7 +7479,7 @@
         <v>26</v>
       </c>
       <c r="C130" s="17">
-        <v>0.48662706594301336</v>
+        <v>9.7325413188602675E-2</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -7491,7 +7491,7 @@
         <v>27</v>
       </c>
       <c r="C131" s="17">
-        <v>0.47669322668608244</v>
+        <v>9.533864533721649E-2</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -7503,7 +7503,7 @@
         <v>28</v>
       </c>
       <c r="C132" s="17">
-        <v>0.42963274287857128</v>
+        <v>8.5926548575714259E-2</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -7515,7 +7515,7 @@
         <v>29</v>
       </c>
       <c r="C133" s="17">
-        <v>0.50250495511685545</v>
+        <v>0.10050099102337109</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -7527,7 +7527,7 @@
         <v>30</v>
       </c>
       <c r="C134" s="17">
-        <v>0.40452963635259581</v>
+        <v>8.0905927270519165E-2</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -7539,7 +7539,7 @@
         <v>31</v>
       </c>
       <c r="C135" s="17">
-        <v>0.49339701626766935</v>
+        <v>9.8679403253533873E-2</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -7551,7 +7551,7 @@
         <v>32</v>
       </c>
       <c r="C136" s="17">
-        <v>0.40823374868494677</v>
+        <v>8.1646749736989349E-2</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -7563,7 +7563,7 @@
         <v>33</v>
       </c>
       <c r="C137" s="17">
-        <v>0.36736618364724871</v>
+        <v>7.3473236729449748E-2</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -7575,7 +7575,7 @@
         <v>34</v>
       </c>
       <c r="C138" s="17">
-        <v>0.40197959372758701</v>
+        <v>8.0395918745517408E-2</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -7587,7 +7587,7 @@
         <v>35</v>
       </c>
       <c r="C139" s="17">
-        <v>0.30627160825590416</v>
+        <v>6.1254321651180832E-2</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -7599,7 +7599,7 @@
         <v>36</v>
       </c>
       <c r="C140" s="17">
-        <v>0.21154598968325208</v>
+        <v>4.2309197936650417E-2</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -7611,7 +7611,7 @@
         <v>37</v>
       </c>
       <c r="C141" s="17">
-        <v>0.11605603775470488</v>
+        <v>2.3211207550940978E-2</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -7623,7 +7623,7 @@
         <v>38</v>
       </c>
       <c r="C142" s="17">
-        <v>0.10588509278812216</v>
+        <v>2.1177018557624432E-2</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -7635,7 +7635,7 @@
         <v>39</v>
       </c>
       <c r="C143" s="17">
-        <v>9.0845101721748991E-2</v>
+        <v>1.81690203443498E-2</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -7647,7 +7647,7 @@
         <v>40</v>
       </c>
       <c r="C144" s="17">
-        <v>7.4499731342035344E-2</v>
+        <v>1.4899946268407068E-2</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -7659,7 +7659,7 @@
         <v>41</v>
       </c>
       <c r="C145" s="17">
-        <v>7.5813281673961869E-2</v>
+        <v>1.5162656334792374E-2</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -7671,7 +7671,7 @@
         <v>42</v>
       </c>
       <c r="C146" s="17">
-        <v>4.0280752743958391E-2</v>
+        <v>8.0561505487916785E-3</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -7911,7 +7911,7 @@
         <v>14</v>
       </c>
       <c r="C166" s="17">
-        <v>6.3516919729300347E-2</v>
+        <v>1.2703383945860069E-2</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -7923,7 +7923,7 @@
         <v>15</v>
       </c>
       <c r="C167" s="17">
-        <v>0.13904696318999776</v>
+        <v>2.7809392637999551E-2</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -7935,7 +7935,7 @@
         <v>16</v>
       </c>
       <c r="C168" s="17">
-        <v>0.16825297810962847</v>
+        <v>3.3650595621925697E-2</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -7947,7 +7947,7 @@
         <v>17</v>
       </c>
       <c r="C169" s="17">
-        <v>0.20946138621323765</v>
+        <v>4.1892277242647533E-2</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -7959,7 +7959,7 @@
         <v>18</v>
       </c>
       <c r="C170" s="17">
-        <v>0.25692866643766554</v>
+        <v>5.1385733287533111E-2</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -7971,7 +7971,7 @@
         <v>19</v>
       </c>
       <c r="C171" s="17">
-        <v>0.30486439617742722</v>
+        <v>6.0972879235485444E-2</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -7983,7 +7983,7 @@
         <v>20</v>
       </c>
       <c r="C172" s="17">
-        <v>0.33494126783268496</v>
+        <v>6.6988253566536995E-2</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -7995,7 +7995,7 @@
         <v>21</v>
       </c>
       <c r="C173" s="17">
-        <v>0.40458142338941855</v>
+        <v>8.0916284677883712E-2</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -8007,7 +8007,7 @@
         <v>22</v>
       </c>
       <c r="C174" s="17">
-        <v>0.48083075945488435</v>
+        <v>9.6166151890976867E-2</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -8019,7 +8019,7 @@
         <v>23</v>
       </c>
       <c r="C175" s="17">
-        <v>0.43470676734704461</v>
+        <v>8.6941353469408927E-2</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -8031,7 +8031,7 @@
         <v>24</v>
       </c>
       <c r="C176" s="17">
-        <v>0.39996404806824593</v>
+        <v>7.9992809613649185E-2</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -8043,7 +8043,7 @@
         <v>25</v>
       </c>
       <c r="C177" s="17">
-        <v>0.43304303219016455</v>
+        <v>8.6608606438032906E-2</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -8055,7 +8055,7 @@
         <v>26</v>
       </c>
       <c r="C178" s="17">
-        <v>0.4874948922825828</v>
+        <v>9.7498978456516561E-2</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -8067,7 +8067,7 @@
         <v>27</v>
       </c>
       <c r="C179" s="17">
-        <v>0.45336508765953026</v>
+        <v>9.0673017531906056E-2</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -8079,7 +8079,7 @@
         <v>28</v>
       </c>
       <c r="C180" s="17">
-        <v>0.40368743272711066</v>
+        <v>8.0737486545422135E-2</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -8091,7 +8091,7 @@
         <v>29</v>
       </c>
       <c r="C181" s="17">
-        <v>0.47052646002477561</v>
+        <v>9.4105292004955127E-2</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -8103,7 +8103,7 @@
         <v>30</v>
       </c>
       <c r="C182" s="17">
-        <v>0.40930970987729715</v>
+        <v>8.1861941975459429E-2</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -8115,7 +8115,7 @@
         <v>31</v>
       </c>
       <c r="C183" s="17">
-        <v>0.46626691485714344</v>
+        <v>9.3253382971428683E-2</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -8127,7 +8127,7 @@
         <v>32</v>
       </c>
       <c r="C184" s="17">
-        <v>0.3690319729612106</v>
+        <v>7.3806394592242114E-2</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -8139,7 +8139,7 @@
         <v>33</v>
       </c>
       <c r="C185" s="17">
-        <v>0.3365538268656752</v>
+        <v>6.7310765373135045E-2</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -8151,7 +8151,7 @@
         <v>34</v>
       </c>
       <c r="C186" s="17">
-        <v>0.39345593075484381</v>
+        <v>7.8691186150968762E-2</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -8163,7 +8163,7 @@
         <v>35</v>
       </c>
       <c r="C187" s="17">
-        <v>0.28416500669100841</v>
+        <v>5.6833001338201683E-2</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -8175,7 +8175,7 @@
         <v>36</v>
       </c>
       <c r="C188" s="17">
-        <v>0.23053234158505398</v>
+        <v>4.6106468317010797E-2</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -8187,7 +8187,7 @@
         <v>37</v>
       </c>
       <c r="C189" s="17">
-        <v>0.10792544903544359</v>
+        <v>2.1585089807088717E-2</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -8199,7 +8199,7 @@
         <v>38</v>
       </c>
       <c r="C190" s="17">
-        <v>0.11095043463587938</v>
+        <v>2.2190086927175875E-2</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -8211,7 +8211,7 @@
         <v>39</v>
       </c>
       <c r="C191" s="17">
-        <v>8.370009992919511E-2</v>
+        <v>1.6740019985839023E-2</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -8223,7 +8223,7 @@
         <v>40</v>
       </c>
       <c r="C192" s="17">
-        <v>8.0884492078740794E-2</v>
+        <v>1.617689841574816E-2</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -8235,7 +8235,7 @@
         <v>41</v>
       </c>
       <c r="C193" s="17">
-        <v>7.3117373727516963E-2</v>
+        <v>1.4623474745503393E-2</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -8247,7 +8247,7 @@
         <v>42</v>
       </c>
       <c r="C194" s="17">
-        <v>4.0582441717056647E-2</v>
+        <v>8.1164883434113287E-3</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -8487,7 +8487,7 @@
         <v>14</v>
       </c>
       <c r="C214" s="17">
-        <v>5.9257064514476918E-2</v>
+        <v>1.1851412902895384E-2</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -8499,7 +8499,7 @@
         <v>15</v>
       </c>
       <c r="C215" s="17">
-        <v>0.13380741702431767</v>
+        <v>2.6761483404863534E-2</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -8511,7 +8511,7 @@
         <v>16</v>
       </c>
       <c r="C216" s="17">
-        <v>0.17301818927757892</v>
+        <v>3.4603637855515783E-2</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -8523,7 +8523,7 @@
         <v>17</v>
       </c>
       <c r="C217" s="17">
-        <v>0.19069641713553662</v>
+        <v>3.8139283427107325E-2</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -8535,7 +8535,7 @@
         <v>18</v>
       </c>
       <c r="C218" s="17">
-        <v>0.23912517188593133</v>
+        <v>4.7825034377186264E-2</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -8547,7 +8547,7 @@
         <v>19</v>
       </c>
       <c r="C219" s="17">
-        <v>0.3033117923736573</v>
+        <v>6.0662358474731462E-2</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -8559,7 +8559,7 @@
         <v>20</v>
       </c>
       <c r="C220" s="17">
-        <v>0.31309636260218249</v>
+        <v>6.2619272520436503E-2</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -8571,7 +8571,7 @@
         <v>21</v>
       </c>
       <c r="C221" s="17">
-        <v>0.37618499235060121</v>
+        <v>7.5236998470120248E-2</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -8583,7 +8583,7 @@
         <v>22</v>
       </c>
       <c r="C222" s="17">
-        <v>0.4569348736897319</v>
+        <v>9.138697473794638E-2</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -8595,7 +8595,7 @@
         <v>23</v>
       </c>
       <c r="C223" s="17">
-        <v>0.46846583354376481</v>
+        <v>9.3693166708752967E-2</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -8607,7 +8607,7 @@
         <v>24</v>
       </c>
       <c r="C224" s="17">
-        <v>0.38905064321170352</v>
+        <v>7.7810128642340701E-2</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -8619,7 +8619,7 @@
         <v>25</v>
       </c>
       <c r="C225" s="17">
-        <v>0.4423926966923033</v>
+        <v>8.8478539338460657E-2</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -8631,7 +8631,7 @@
         <v>26</v>
       </c>
       <c r="C226" s="17">
-        <v>0.45862906134263964</v>
+        <v>9.1725812268527926E-2</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -8643,7 +8643,7 @@
         <v>27</v>
       </c>
       <c r="C227" s="17">
-        <v>0.4763639761559475</v>
+        <v>9.5272795231189505E-2</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -8655,7 +8655,7 @@
         <v>28</v>
       </c>
       <c r="C228" s="17">
-        <v>0.3634706839716364</v>
+        <v>7.2694136794327277E-2</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -8667,7 +8667,7 @@
         <v>29</v>
       </c>
       <c r="C229" s="17">
-        <v>0.45064584029623106</v>
+        <v>9.0129168059246215E-2</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -8679,7 +8679,7 @@
         <v>30</v>
       </c>
       <c r="C230" s="17">
-        <v>0.3748120098878992</v>
+        <v>7.4962401977579834E-2</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -8691,7 +8691,7 @@
         <v>31</v>
       </c>
       <c r="C231" s="17">
-        <v>0.44723422268992269</v>
+        <v>8.9446844537984543E-2</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -8703,7 +8703,7 @@
         <v>32</v>
       </c>
       <c r="C232" s="17">
-        <v>0.36281470208795974</v>
+        <v>7.2562940417591953E-2</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -8715,7 +8715,7 @@
         <v>33</v>
       </c>
       <c r="C233" s="17">
-        <v>0.33498650587959122</v>
+        <v>6.6997301175918247E-2</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -8727,7 +8727,7 @@
         <v>34</v>
       </c>
       <c r="C234" s="17">
-        <v>0.35840417771980715</v>
+        <v>7.168083554396143E-2</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -8739,7 +8739,7 @@
         <v>35</v>
       </c>
       <c r="C235" s="17">
-        <v>0.28764681411960524</v>
+        <v>5.752936282392105E-2</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -8751,7 +8751,7 @@
         <v>36</v>
       </c>
       <c r="C236" s="17">
-        <v>0.24398249664173202</v>
+        <v>4.8796499328346406E-2</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -8763,7 +8763,7 @@
         <v>37</v>
       </c>
       <c r="C237" s="17">
-        <v>0.10619552698053436</v>
+        <v>2.1239105396106871E-2</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -8775,7 +8775,7 @@
         <v>38</v>
       </c>
       <c r="C238" s="17">
-        <v>0.12031333806826632</v>
+        <v>2.4062667613653263E-2</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -8787,7 +8787,7 @@
         <v>39</v>
       </c>
       <c r="C239" s="17">
-        <v>7.8479924919194297E-2</v>
+        <v>1.5695984983838861E-2</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -8799,7 +8799,7 @@
         <v>40</v>
       </c>
       <c r="C240" s="17">
-        <v>7.4541093550912249E-2</v>
+        <v>1.490821871018245E-2</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -8811,7 +8811,7 @@
         <v>41</v>
       </c>
       <c r="C241" s="17">
-        <v>7.4697098959214461E-2</v>
+        <v>1.4939419791842892E-2</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -8823,7 +8823,7 @@
         <v>42</v>
       </c>
       <c r="C242" s="17">
-        <v>4.2638914249485911E-2</v>
+        <v>8.5277828498971815E-3</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -9063,7 +9063,7 @@
         <v>14</v>
       </c>
       <c r="C262" s="17">
-        <v>6.1745023435767599E-2</v>
+        <v>1.234900468715352E-2</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -9075,7 +9075,7 @@
         <v>15</v>
       </c>
       <c r="C263" s="17">
-        <v>0.12769778858578856</v>
+        <v>2.5539557717157713E-2</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -9087,7 +9087,7 @@
         <v>16</v>
       </c>
       <c r="C264" s="17">
-        <v>0.18800551992435996</v>
+        <v>3.7601103984871993E-2</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -9099,7 +9099,7 @@
         <v>17</v>
       </c>
       <c r="C265" s="17">
-        <v>0.17591489624261528</v>
+        <v>3.5182979248523052E-2</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -9111,7 +9111,7 @@
         <v>18</v>
       </c>
       <c r="C266" s="17">
-        <v>0.25018410191707313</v>
+        <v>5.0036820383414629E-2</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -9123,7 +9123,7 @@
         <v>19</v>
       </c>
       <c r="C267" s="17">
-        <v>0.31204773660637108</v>
+        <v>6.2409547321274218E-2</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -9135,7 +9135,7 @@
         <v>20</v>
       </c>
       <c r="C268" s="17">
-        <v>0.32990638757687046</v>
+        <v>6.5981277515374095E-2</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -9147,7 +9147,7 @@
         <v>21</v>
       </c>
       <c r="C269" s="17">
-        <v>0.35394069306003068</v>
+        <v>7.0788138612006141E-2</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -9159,7 +9159,7 @@
         <v>22</v>
       </c>
       <c r="C270" s="17">
-        <v>0.48558062020108012</v>
+        <v>9.7116124040216023E-2</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -9171,7 +9171,7 @@
         <v>23</v>
       </c>
       <c r="C271" s="17">
-        <v>0.46065999147182524</v>
+        <v>9.2131998294365053E-2</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -9183,7 +9183,7 @@
         <v>24</v>
       </c>
       <c r="C272" s="17">
-        <v>0.40891732821224497</v>
+        <v>8.1783465642448996E-2</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -9195,7 +9195,7 @@
         <v>25</v>
       </c>
       <c r="C273" s="17">
-        <v>0.44225435048847334</v>
+        <v>8.8450870097694673E-2</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -9207,7 +9207,7 @@
         <v>26</v>
       </c>
       <c r="C274" s="17">
-        <v>0.4304781339199284</v>
+        <v>8.6095626783985676E-2</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -9219,7 +9219,7 @@
         <v>27</v>
       </c>
       <c r="C275" s="17">
-        <v>0.42942079014164658</v>
+        <v>8.5884158028329313E-2</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -9231,7 +9231,7 @@
         <v>28</v>
       </c>
       <c r="C276" s="17">
-        <v>0.37841679672334944</v>
+        <v>7.5683359344669882E-2</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -9243,7 +9243,7 @@
         <v>29</v>
       </c>
       <c r="C277" s="17">
-        <v>0.49150339035864066</v>
+        <v>9.8300678071728126E-2</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -9255,7 +9255,7 @@
         <v>30</v>
       </c>
       <c r="C278" s="17">
-        <v>0.38076835783106694</v>
+        <v>7.6153671566213388E-2</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -9267,7 +9267,7 @@
         <v>31</v>
       </c>
       <c r="C279" s="17">
-        <v>0.47344853792178354</v>
+        <v>9.4689707584356714E-2</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -9279,7 +9279,7 @@
         <v>32</v>
       </c>
       <c r="C280" s="17">
-        <v>0.32854678109157448</v>
+        <v>6.570935621831489E-2</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -9291,7 +9291,7 @@
         <v>33</v>
       </c>
       <c r="C281" s="17">
-        <v>0.34532421250590828</v>
+        <v>6.9064842501181653E-2</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -9303,7 +9303,7 @@
         <v>34</v>
       </c>
       <c r="C282" s="17">
-        <v>0.33489307413136893</v>
+        <v>6.6978614826273791E-2</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -9315,7 +9315,7 @@
         <v>35</v>
       </c>
       <c r="C283" s="17">
-        <v>0.31024307882847013</v>
+        <v>6.2048615765694023E-2</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -9327,7 +9327,7 @@
         <v>36</v>
       </c>
       <c r="C284" s="17">
-        <v>0.22412757784092519</v>
+        <v>4.4825515568185037E-2</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -9339,7 +9339,7 @@
         <v>37</v>
       </c>
       <c r="C285" s="17">
-        <v>0.10391789439250169</v>
+        <v>2.0783578878500339E-2</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -9351,7 +9351,7 @@
         <v>38</v>
       </c>
       <c r="C286" s="17">
-        <v>0.11643679060062406</v>
+        <v>2.3287358120124814E-2</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -9363,7 +9363,7 @@
         <v>39</v>
       </c>
       <c r="C287" s="17">
-        <v>7.2680294649316787E-2</v>
+        <v>1.4536058929863357E-2</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -9375,7 +9375,7 @@
         <v>40</v>
       </c>
       <c r="C288" s="17">
-        <v>7.444640763734095E-2</v>
+        <v>1.488928152746819E-2</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -9387,7 +9387,7 @@
         <v>41</v>
       </c>
       <c r="C289" s="17">
-        <v>7.6940014900749448E-2</v>
+        <v>1.538800298014989E-2</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -9399,7 +9399,7 @@
         <v>42</v>
       </c>
       <c r="C290" s="17">
-        <v>3.8529848436009283E-2</v>
+        <v>7.7059696872018562E-3</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -9639,7 +9639,7 @@
         <v>14</v>
       </c>
       <c r="C310" s="17">
-        <v>5.9090911204803358E-2</v>
+        <v>1.1818182240960672E-2</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -9651,7 +9651,7 @@
         <v>15</v>
       </c>
       <c r="C311" s="17">
-        <v>0.12923780845786345</v>
+        <v>2.584756169157269E-2</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -9663,7 +9663,7 @@
         <v>16</v>
       </c>
       <c r="C312" s="17">
-        <v>0.19646347396342384</v>
+        <v>3.9292694792684768E-2</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -9675,7 +9675,7 @@
         <v>17</v>
       </c>
       <c r="C313" s="17">
-        <v>0.17440240190474368</v>
+        <v>3.4880480380948736E-2</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -9687,7 +9687,7 @@
         <v>18</v>
       </c>
       <c r="C314" s="17">
-        <v>0.22713561641087851</v>
+        <v>4.5427123282175699E-2</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -9699,7 +9699,7 @@
         <v>19</v>
       </c>
       <c r="C315" s="17">
-        <v>0.29378435070148412</v>
+        <v>5.8756870140296825E-2</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -9711,7 +9711,7 @@
         <v>20</v>
       </c>
       <c r="C316" s="17">
-        <v>0.31184044416362633</v>
+        <v>6.2368088832725266E-2</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -9723,7 +9723,7 @@
         <v>21</v>
       </c>
       <c r="C317" s="17">
-        <v>0.38124009174351092</v>
+        <v>7.6248018348702179E-2</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -9735,7 +9735,7 @@
         <v>22</v>
       </c>
       <c r="C318" s="17">
-        <v>0.52767627606712919</v>
+        <v>0.10553525521342584</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
@@ -9747,7 +9747,7 @@
         <v>23</v>
       </c>
       <c r="C319" s="17">
-        <v>0.45327735243556233</v>
+        <v>9.0655470487112463E-2</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
@@ -9759,7 +9759,7 @@
         <v>24</v>
       </c>
       <c r="C320" s="17">
-        <v>0.38907148026971644</v>
+        <v>7.7814296053943285E-2</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
@@ -9771,7 +9771,7 @@
         <v>25</v>
       </c>
       <c r="C321" s="17">
-        <v>0.46996333102057175</v>
+        <v>9.3992666204114353E-2</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -9783,7 +9783,7 @@
         <v>26</v>
       </c>
       <c r="C322" s="17">
-        <v>0.41574712749566517</v>
+        <v>8.3149425499133039E-2</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -9795,7 +9795,7 @@
         <v>27</v>
       </c>
       <c r="C323" s="17">
-        <v>0.46547680821723258</v>
+        <v>9.309536164344652E-2</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
@@ -9807,7 +9807,7 @@
         <v>28</v>
       </c>
       <c r="C324" s="17">
-        <v>0.34211258904163411</v>
+        <v>6.8422517808326824E-2</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
@@ -9819,7 +9819,7 @@
         <v>29</v>
       </c>
       <c r="C325" s="17">
-        <v>0.49600624219677397</v>
+        <v>9.9201248439354794E-2</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -9831,7 +9831,7 @@
         <v>30</v>
       </c>
       <c r="C326" s="17">
-        <v>0.39212715928306768</v>
+        <v>7.8425431856613534E-2</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -9843,7 +9843,7 @@
         <v>31</v>
       </c>
       <c r="C327" s="17">
-        <v>0.46993725532092218</v>
+        <v>9.3987451064184435E-2</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -9855,7 +9855,7 @@
         <v>32</v>
       </c>
       <c r="C328" s="17">
-        <v>0.29957922399269155</v>
+        <v>5.9915844798538308E-2</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -9867,7 +9867,7 @@
         <v>33</v>
       </c>
       <c r="C329" s="17">
-        <v>0.31582400546078743</v>
+        <v>6.3164801092157483E-2</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -9879,7 +9879,7 @@
         <v>34</v>
       </c>
       <c r="C330" s="17">
-        <v>0.31265515539095284</v>
+        <v>6.2531031078190566E-2</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -9891,7 +9891,7 @@
         <v>35</v>
       </c>
       <c r="C331" s="17">
-        <v>0.31322164481697018</v>
+        <v>6.264432896339403E-2</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -9903,7 +9903,7 @@
         <v>36</v>
       </c>
       <c r="C332" s="17">
-        <v>0.2084081925028673</v>
+        <v>4.1681638500573458E-2</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -9915,7 +9915,7 @@
         <v>37</v>
       </c>
       <c r="C333" s="17">
-        <v>0.10443176205373941</v>
+        <v>2.0886352410747884E-2</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
@@ -9927,7 +9927,7 @@
         <v>38</v>
       </c>
       <c r="C334" s="17">
-        <v>0.11306330484826349</v>
+        <v>2.2612660969652698E-2</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -9939,7 +9939,7 @@
         <v>39</v>
       </c>
       <c r="C335" s="17">
-        <v>7.140916027945711E-2</v>
+        <v>1.4281832055891421E-2</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
@@ -9951,7 +9951,7 @@
         <v>40</v>
       </c>
       <c r="C336" s="17">
-        <v>7.1943514859275137E-2</v>
+        <v>1.4388702971855027E-2</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
@@ -9963,7 +9963,7 @@
         <v>41</v>
       </c>
       <c r="C337" s="17">
-        <v>6.9294607033672254E-2</v>
+        <v>1.3858921406734451E-2</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
@@ -9975,7 +9975,7 @@
         <v>42</v>
       </c>
       <c r="C338" s="17">
-        <v>3.9647046698097377E-2</v>
+        <v>7.929409339619475E-3</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
